--- a/result.xlsx
+++ b/result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ad38155fc2aae0f9/Documents/UiPath/enigma-57/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="8_{FF23656B-77DB-469C-A9C0-3D4D8A968CE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8FC84C5A-BD89-4060-A5D7-248800B2E5E0}"/>
+  <xr:revisionPtr revIDLastSave="33" documentId="8_{FF23656B-77DB-469C-A9C0-3D4D8A968CE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{209DA502-3F4C-4750-998E-9314E65B2A80}"/>
   <bookViews>
-    <workbookView xWindow="2420" yWindow="2420" windowWidth="14400" windowHeight="8170" xr2:uid="{4BC4BAFB-BEFA-4960-9125-AADFD922CAD9}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{4BC4BAFB-BEFA-4960-9125-AADFD922CAD9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,18 +34,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>HIGH</t>
+  </si>
+  <si>
+    <t>quit</t>
+  </si>
   <si>
     <t>LOW</t>
   </si>
   <si>
-    <t>hostel food is not good</t>
-  </si>
-  <si>
-    <t>quit</t>
-  </si>
-  <si>
-    <t>HIGH</t>
+    <t>Wifi is not provided in labs so it is difficult to complete the lab exercises</t>
+  </si>
+  <si>
+    <t>MID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hostel food is not cooked propely and was stale </t>
   </si>
 </sst>
 </file>
@@ -400,26 +406,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27DE35AF-5958-4B5E-A607-23B99FB77917}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="98.90625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>3</v>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
